--- a/deliverable/v4-ASVS-checklist-en.xlsx
+++ b/deliverable/v4-ASVS-checklist-en.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="689">
   <si>
     <t xml:space="preserve">Security Category</t>
   </si>
@@ -180,6 +180,9 @@
     <t xml:space="preserve">Verify the use of unique or special low-privilege operating system accounts for all application components, services, and servers. ([C3](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t xml:space="preserve">Not Applicable</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2.2</t>
   </si>
   <si>
@@ -198,13 +201,13 @@
     <t xml:space="preserve">Verify that all authentication pathways and identity management APIs implement consistent authentication security control strength, such that there are no weaker alternatives per the risk of the application.</t>
   </si>
   <si>
+    <t xml:space="preserve">Non-valid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Session Management Architecture</t>
   </si>
   <si>
     <t xml:space="preserve">This is a placeholder for future architectural requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Applicable</t>
   </si>
   <si>
     <t xml:space="preserve">Access Control Architecture </t>
@@ -3479,7 +3482,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3513,7 +3516,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3549,13 +3552,13 @@
               </a:gsLst>
               <a:lin ang="16200000"/>
             </a:gradFill>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3575,6 +3578,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3636,7 +3644,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3678,19 +3686,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.85608856088561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="17923522"/>
-        <c:axId val="74048637"/>
+        <c:axId val="44014047"/>
+        <c:axId val="79675496"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="17923522"/>
+        <c:axId val="44014047"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3704,7 +3712,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3727,7 +3735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74048637"/>
+        <c:crossAx val="79675496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3735,7 +3743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74048637"/>
+        <c:axId val="79675496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,7 +3785,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17923522"/>
+        <c:crossAx val="44014047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3785,7 +3793,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3795,7 +3803,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3842,9 +3850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1719000</xdr:colOff>
+      <xdr:colOff>1718640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3852,8 +3860,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="4510440"/>
-        <a:ext cx="11146680" cy="9333720"/>
+        <a:off x="0" y="4510800"/>
+        <a:ext cx="11146320" cy="9333360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3873,13 +3881,13 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="64.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="64.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25"/>
@@ -3910,15 +3918,15 @@
       </c>
       <c r="B2" s="7" t="n">
         <f aca="false">0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="n">
         <f aca="false">COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="n">
         <f aca="false">(B2/C2)*100</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -4163,22 +4171,22 @@
       </c>
       <c r="B16" s="7" t="n">
         <f aca="false">SUM(B2:B15)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="n">
         <f aca="false">SUM(C2:C15)</f>
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D16" s="9" t="n">
         <f aca="false">(B16/C16)*100</f>
-        <v>0</v>
+        <v>8.85608856088561</v>
       </c>
       <c r="E16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4194,7 +4202,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4245,10 +4253,10 @@
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
@@ -4258,7 +4266,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -4268,7 +4276,7 @@
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -4278,7 +4286,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -4288,7 +4296,7 @@
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -4298,7 +4306,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -4307,10 +4315,10 @@
     </row>
     <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -4320,7 +4328,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -4330,7 +4338,7 @@
     <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -4340,7 +4348,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -4350,7 +4358,7 @@
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="63" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -4360,7 +4368,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -4370,7 +4378,7 @@
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -4380,7 +4388,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -4390,7 +4398,7 @@
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C9" s="96" t="n">
         <v>3</v>
@@ -4400,7 +4408,7 @@
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="82" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -4413,14 +4421,14 @@
     <mergeCell ref="A5:A9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4435,7 +4443,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4486,10 +4494,10 @@
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C2" s="98" t="n">
         <v>3</v>
@@ -4499,7 +4507,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -4508,10 +4516,10 @@
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -4521,7 +4529,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -4531,7 +4539,7 @@
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -4541,7 +4549,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -4551,7 +4559,7 @@
     <row r="5" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="63" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C5" s="70" t="n">
         <v>3</v>
@@ -4561,7 +4569,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -4571,7 +4579,7 @@
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C6" s="70" t="n">
         <v>3</v>
@@ -4581,7 +4589,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -4591,7 +4599,7 @@
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="63" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C7" s="70" t="n">
         <v>3</v>
@@ -4601,7 +4609,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -4611,7 +4619,7 @@
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C8" s="70" t="n">
         <v>3</v>
@@ -4621,7 +4629,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -4630,10 +4638,10 @@
     </row>
     <row r="9" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -4643,7 +4651,7 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -4653,7 +4661,7 @@
     <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -4663,7 +4671,7 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -4673,7 +4681,7 @@
     <row r="11" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="63" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C11" s="71" t="n">
         <v>1</v>
@@ -4683,7 +4691,7 @@
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="82" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -4696,14 +4704,14 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4718,17 +4726,17 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="23.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="60" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="71.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="34.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="34.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="36.99"/>
@@ -4769,10 +4777,10 @@
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
@@ -4782,7 +4790,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -4792,7 +4800,7 @@
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -4802,7 +4810,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -4812,7 +4820,7 @@
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -4822,7 +4830,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -4832,7 +4840,7 @@
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="63" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -4842,7 +4850,7 @@
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="81" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -4852,7 +4860,7 @@
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -4862,7 +4870,7 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="81" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -4872,7 +4880,7 @@
     <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="63" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -4882,7 +4890,7 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="81" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -4892,7 +4900,7 @@
     <row r="8" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -4902,7 +4910,7 @@
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="81" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -4912,7 +4920,7 @@
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C9" s="79" t="n">
         <v>2</v>
@@ -4922,7 +4930,7 @@
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="82" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -4934,14 +4942,14 @@
     <mergeCell ref="A2:A9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G9" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4956,7 +4964,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -5007,10 +5015,10 @@
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
@@ -5020,7 +5028,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -5030,7 +5038,7 @@
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -5040,7 +5048,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -5050,7 +5058,7 @@
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -5060,7 +5068,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -5069,10 +5077,10 @@
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -5082,7 +5090,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -5091,10 +5099,10 @@
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -5104,7 +5112,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -5114,7 +5122,7 @@
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="63" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -5124,7 +5132,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -5134,7 +5142,7 @@
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -5144,7 +5152,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5154,7 +5162,7 @@
     <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -5164,7 +5172,7 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -5174,7 +5182,7 @@
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -5184,7 +5192,7 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -5194,7 +5202,7 @@
     <row r="11" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="63" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C11" s="69" t="n">
         <v>2</v>
@@ -5204,7 +5212,7 @@
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="81" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -5213,10 +5221,10 @@
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -5226,7 +5234,7 @@
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="81" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -5236,7 +5244,7 @@
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
       <c r="B13" s="63" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -5246,7 +5254,7 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="81" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -5255,10 +5263,10 @@
     </row>
     <row r="14" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -5268,7 +5276,7 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="81" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -5278,7 +5286,7 @@
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
       <c r="B15" s="63" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C15" s="67" t="n">
         <v>1</v>
@@ -5288,7 +5296,7 @@
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="81" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -5297,10 +5305,10 @@
     </row>
     <row r="16" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C16" s="71" t="n">
         <v>1</v>
@@ -5310,7 +5318,7 @@
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="82" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
@@ -5325,14 +5333,14 @@
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5347,7 +5355,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -5397,10 +5405,10 @@
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
@@ -5410,7 +5418,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -5420,7 +5428,7 @@
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -5430,10 +5438,10 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
@@ -5442,7 +5450,7 @@
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -5452,7 +5460,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -5462,7 +5470,7 @@
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="63" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -5472,7 +5480,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -5482,7 +5490,7 @@
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -5492,7 +5500,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -5501,10 +5509,10 @@
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -5514,7 +5522,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -5524,7 +5532,7 @@
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -5534,7 +5542,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5544,7 +5552,7 @@
     <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -5554,7 +5562,7 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -5564,7 +5572,7 @@
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -5574,10 +5582,10 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -5586,7 +5594,7 @@
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="63" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C11" s="69" t="n">
         <v>2</v>
@@ -5596,7 +5604,7 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -5606,7 +5614,7 @@
     <row r="12" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="63" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C12" s="69" t="n">
         <v>2</v>
@@ -5616,7 +5624,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -5625,10 +5633,10 @@
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -5638,7 +5646,7 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -5648,7 +5656,7 @@
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="63" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C14" s="69" t="n">
         <v>2</v>
@@ -5658,7 +5666,7 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -5667,10 +5675,10 @@
     </row>
     <row r="15" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C15" s="69" t="n">
         <v>2</v>
@@ -5680,7 +5688,7 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -5690,7 +5698,7 @@
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
       <c r="B16" s="63" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C16" s="79" t="n">
         <v>2</v>
@@ -5700,7 +5708,7 @@
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="82" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
@@ -5715,14 +5723,14 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G16" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5737,7 +5745,7 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -5788,10 +5796,10 @@
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="100" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C2" s="102" t="n">
         <v>2</v>
@@ -5799,7 +5807,7 @@
       <c r="D2" s="103"/>
       <c r="E2" s="104"/>
       <c r="F2" s="105" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
@@ -5809,7 +5817,7 @@
     <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="100"/>
       <c r="B3" s="63" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C3" s="108" t="n">
         <v>2</v>
@@ -5819,7 +5827,7 @@
       </c>
       <c r="E3" s="110"/>
       <c r="F3" s="111" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G3" s="112"/>
       <c r="H3" s="112"/>
@@ -5829,7 +5837,7 @@
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="100"/>
       <c r="B4" s="63" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C4" s="108" t="n">
         <v>2</v>
@@ -5839,7 +5847,7 @@
       </c>
       <c r="E4" s="110"/>
       <c r="F4" s="111" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -5849,7 +5857,7 @@
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="100"/>
       <c r="B5" s="63" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C5" s="108" t="n">
         <v>2</v>
@@ -5857,7 +5865,7 @@
       <c r="D5" s="109"/>
       <c r="E5" s="110"/>
       <c r="F5" s="111" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -5867,7 +5875,7 @@
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="100"/>
       <c r="B6" s="63" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C6" s="114" t="n">
         <v>3</v>
@@ -5875,7 +5883,7 @@
       <c r="D6" s="109"/>
       <c r="E6" s="110"/>
       <c r="F6" s="111" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G6" s="112"/>
       <c r="H6" s="112"/>
@@ -5884,10 +5892,10 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C7" s="115" t="n">
         <v>1</v>
@@ -5897,7 +5905,7 @@
       </c>
       <c r="E7" s="110"/>
       <c r="F7" s="111" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="112"/>
@@ -5907,7 +5915,7 @@
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C8" s="115" t="n">
         <v>1</v>
@@ -5917,7 +5925,7 @@
       </c>
       <c r="E8" s="110"/>
       <c r="F8" s="111" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G8" s="112"/>
       <c r="H8" s="112"/>
@@ -5927,7 +5935,7 @@
     <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C9" s="115" t="n">
         <v>1</v>
@@ -5937,7 +5945,7 @@
       </c>
       <c r="E9" s="110"/>
       <c r="F9" s="111" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G9" s="112"/>
       <c r="H9" s="112"/>
@@ -5947,7 +5955,7 @@
     <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C10" s="108" t="n">
         <v>2</v>
@@ -5957,7 +5965,7 @@
       </c>
       <c r="E10" s="110"/>
       <c r="F10" s="111" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="112"/>
@@ -5967,7 +5975,7 @@
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="63" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C11" s="108" t="n">
         <v>2</v>
@@ -5975,7 +5983,7 @@
       <c r="D11" s="109"/>
       <c r="E11" s="110"/>
       <c r="F11" s="111" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G11" s="112"/>
       <c r="H11" s="112"/>
@@ -5985,7 +5993,7 @@
     <row r="12" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="63" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C12" s="108" t="n">
         <v>2</v>
@@ -5995,7 +6003,7 @@
       </c>
       <c r="E12" s="110"/>
       <c r="F12" s="111" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="112"/>
@@ -6004,10 +6012,10 @@
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C13" s="115" t="n">
         <v>1</v>
@@ -6017,10 +6025,10 @@
       </c>
       <c r="E13" s="110"/>
       <c r="F13" s="111" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H13" s="112"/>
       <c r="I13" s="112"/>
@@ -6029,7 +6037,7 @@
     <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="63" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C14" s="115" t="n">
         <v>1</v>
@@ -6039,7 +6047,7 @@
       </c>
       <c r="E14" s="110"/>
       <c r="F14" s="111" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="112"/>
@@ -6049,7 +6057,7 @@
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
       <c r="B15" s="63" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C15" s="115" t="n">
         <v>1</v>
@@ -6059,7 +6067,7 @@
       </c>
       <c r="E15" s="110"/>
       <c r="F15" s="111" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G15" s="112"/>
       <c r="H15" s="112"/>
@@ -6068,10 +6076,10 @@
     </row>
     <row r="16" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C16" s="115" t="n">
         <v>1</v>
@@ -6081,7 +6089,7 @@
       </c>
       <c r="E16" s="110"/>
       <c r="F16" s="111" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="112"/>
@@ -6091,7 +6099,7 @@
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="63" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C17" s="115" t="n">
         <v>1</v>
@@ -6101,7 +6109,7 @@
       </c>
       <c r="E17" s="110"/>
       <c r="F17" s="111" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G17" s="112"/>
       <c r="H17" s="112"/>
@@ -6111,7 +6119,7 @@
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
       <c r="B18" s="63" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C18" s="115" t="n">
         <v>1</v>
@@ -6121,7 +6129,7 @@
       </c>
       <c r="E18" s="110"/>
       <c r="F18" s="111" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="112"/>
@@ -6131,7 +6139,7 @@
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44"/>
       <c r="B19" s="63" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C19" s="115" t="n">
         <v>1</v>
@@ -6141,7 +6149,7 @@
       </c>
       <c r="E19" s="110"/>
       <c r="F19" s="111" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G19" s="112"/>
       <c r="H19" s="112"/>
@@ -6151,7 +6159,7 @@
     <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44"/>
       <c r="B20" s="63" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C20" s="115" t="n">
         <v>1</v>
@@ -6161,7 +6169,7 @@
       </c>
       <c r="E20" s="110"/>
       <c r="F20" s="111" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="112"/>
@@ -6171,7 +6179,7 @@
     <row r="21" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44"/>
       <c r="B21" s="63" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C21" s="115" t="n">
         <v>1</v>
@@ -6181,7 +6189,7 @@
       </c>
       <c r="E21" s="110"/>
       <c r="F21" s="111" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G21" s="112"/>
       <c r="H21" s="112"/>
@@ -6191,7 +6199,7 @@
     <row r="22" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="44"/>
       <c r="B22" s="63" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C22" s="115" t="n">
         <v>1</v>
@@ -6201,7 +6209,7 @@
       </c>
       <c r="E22" s="110"/>
       <c r="F22" s="111" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G22" s="112"/>
       <c r="H22" s="112"/>
@@ -6210,10 +6218,10 @@
     </row>
     <row r="23" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C23" s="115" t="n">
         <v>1</v>
@@ -6223,7 +6231,7 @@
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G23" s="112"/>
       <c r="H23" s="112"/>
@@ -6233,7 +6241,7 @@
     <row r="24" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C24" s="115" t="n">
         <v>1</v>
@@ -6243,7 +6251,7 @@
       </c>
       <c r="E24" s="110"/>
       <c r="F24" s="111" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="112"/>
@@ -6253,7 +6261,7 @@
     <row r="25" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44"/>
       <c r="B25" s="63" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C25" s="115" t="n">
         <v>1</v>
@@ -6263,7 +6271,7 @@
       </c>
       <c r="E25" s="110"/>
       <c r="F25" s="111" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G25" s="112"/>
       <c r="H25" s="112"/>
@@ -6273,7 +6281,7 @@
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C26" s="116" t="n">
         <v>2</v>
@@ -6283,7 +6291,7 @@
       </c>
       <c r="E26" s="118"/>
       <c r="F26" s="119" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G26" s="120"/>
       <c r="H26" s="120"/>
@@ -6299,14 +6307,14 @@
     <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G26" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G26" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6321,8 +6329,8 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6386,7 +6394,9 @@
       <c r="F2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
@@ -6406,7 +6416,9 @@
       <c r="F3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="31"/>
@@ -6426,12 +6438,14 @@
       <c r="F4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="25" customFormat="true" ht="97.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
         <v>37</v>
@@ -6446,7 +6460,9 @@
       <c r="F5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
@@ -6466,7 +6482,9 @@
       <c r="F6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
@@ -6486,7 +6504,9 @@
       <c r="F7" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="31"/>
@@ -6506,7 +6526,9 @@
       <c r="F8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="31"/>
@@ -6528,7 +6550,9 @@
       <c r="F9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="31"/>
@@ -6536,7 +6560,7 @@
     <row r="10" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="26" t="n">
         <v>2</v>
@@ -6546,9 +6570,11 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
@@ -6556,7 +6582,7 @@
     <row r="11" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>2</v>
@@ -6566,17 +6592,19 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="25" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="26" t="n">
         <v>2</v>
@@ -6586,26 +6614,28 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" s="25" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
       <c r="F13" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -6613,10 +6643,10 @@
     </row>
     <row r="14" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="26" t="n">
         <v>2</v>
@@ -6626,9 +6656,11 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="28"/>
+        <v>60</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
@@ -6636,7 +6668,7 @@
     <row r="15" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="26" t="n">
         <v>2</v>
@@ -6646,10 +6678,10 @@
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -6658,7 +6690,7 @@
     <row r="16" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17"/>
       <c r="B16" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="26" t="n">
         <v>2</v>
@@ -6668,19 +6700,19 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="25" customFormat="true" ht="99.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="26" t="n">
         <v>2</v>
@@ -6690,9 +6722,11 @@
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="32"/>
@@ -6700,7 +6734,7 @@
     <row r="18" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="26" t="n">
         <v>2</v>
@@ -6710,19 +6744,21 @@
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="26" t="n">
         <v>2</v>
@@ -6732,9 +6768,11 @@
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="32"/>
@@ -6742,7 +6780,7 @@
     <row r="20" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>2</v>
@@ -6752,9 +6790,11 @@
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="28"/>
+        <v>73</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="32"/>
@@ -6762,7 +6802,7 @@
     <row r="21" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="26" t="n">
         <v>2</v>
@@ -6772,9 +6812,11 @@
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="32"/>
@@ -6782,7 +6824,7 @@
     <row r="22" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="26" t="n">
         <v>2</v>
@@ -6792,19 +6834,21 @@
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="26" t="n">
         <v>2</v>
@@ -6814,9 +6858,11 @@
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="28"/>
+        <v>80</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
@@ -6824,7 +6870,7 @@
     <row r="24" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="26" t="n">
         <v>2</v>
@@ -6834,9 +6880,11 @@
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="28"/>
+        <v>82</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="32"/>
@@ -6844,7 +6892,7 @@
     <row r="25" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="26" t="n">
         <v>2</v>
@@ -6854,9 +6902,11 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="28"/>
+        <v>84</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="32"/>
@@ -6864,7 +6914,7 @@
     <row r="26" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="B26" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="26" t="n">
         <v>2</v>
@@ -6874,19 +6924,21 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="28"/>
+        <v>86</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="32"/>
     </row>
     <row r="27" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="26" t="n">
         <v>2</v>
@@ -6896,9 +6948,11 @@
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="28"/>
+        <v>89</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="32"/>
@@ -6906,7 +6960,7 @@
     <row r="28" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="B28" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="26" t="n">
         <v>2</v>
@@ -6914,19 +6968,21 @@
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="28"/>
+        <v>91</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="32"/>
     </row>
     <row r="29" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="26" t="n">
         <v>2</v>
@@ -6934,9 +6990,11 @@
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
       <c r="F29" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
@@ -6944,7 +7002,7 @@
     <row r="30" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="26" t="n">
         <v>2</v>
@@ -6952,19 +7010,21 @@
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="32"/>
     </row>
     <row r="31" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="26" t="n">
         <v>2</v>
@@ -6974,17 +7034,19 @@
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="25" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
       <c r="B32" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="26" t="n">
         <v>2</v>
@@ -6994,19 +7056,21 @@
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="32"/>
     </row>
     <row r="33" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="26" t="n">
         <v>2</v>
@@ -7016,19 +7080,21 @@
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="28"/>
+        <v>104</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="32"/>
     </row>
     <row r="34" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="26" t="n">
         <v>2</v>
@@ -7038,9 +7104,11 @@
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
@@ -7048,7 +7116,7 @@
     <row r="35" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
       <c r="B35" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="26" t="n">
         <v>2</v>
@@ -7058,7 +7126,7 @@
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -7068,7 +7136,7 @@
     <row r="36" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="B36" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="26" t="n">
         <v>2</v>
@@ -7078,19 +7146,21 @@
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="28"/>
+        <v>111</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="32"/>
     </row>
     <row r="37" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="26" t="n">
         <v>2</v>
@@ -7100,10 +7170,10 @@
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -7112,7 +7182,7 @@
     <row r="38" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
       <c r="B38" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" s="26" t="n">
         <v>2</v>
@@ -7122,26 +7192,28 @@
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="28"/>
+        <v>116</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
       <c r="J38" s="32"/>
     </row>
     <row r="39" s="25" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -7149,10 +7221,10 @@
     </row>
     <row r="40" s="25" customFormat="true" ht="58.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="26" t="n">
         <v>2</v>
@@ -7162,9 +7234,11 @@
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="28"/>
+        <v>120</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
       <c r="J40" s="32"/>
@@ -7172,7 +7246,7 @@
     <row r="41" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
       <c r="B41" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="26" t="n">
         <v>2</v>
@@ -7182,9 +7256,11 @@
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="28"/>
+        <v>122</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="32"/>
@@ -7192,7 +7268,7 @@
     <row r="42" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
       <c r="B42" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" s="26" t="n">
         <v>2</v>
@@ -7202,9 +7278,11 @@
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="28"/>
+        <v>124</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
       <c r="J42" s="32"/>
@@ -7212,7 +7290,7 @@
     <row r="43" s="25" customFormat="true" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
       <c r="B43" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="26" t="n">
         <v>2</v>
@@ -7220,9 +7298,11 @@
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
       <c r="F43" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="28"/>
+        <v>126</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="32"/>
@@ -7230,7 +7310,7 @@
     <row r="44" s="25" customFormat="true" ht="100.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
       <c r="B44" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" s="26" t="n">
         <v>2</v>
@@ -7240,9 +7320,11 @@
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="28"/>
+        <v>128</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="32"/>
@@ -7250,7 +7332,7 @@
     <row r="45" s="25" customFormat="true" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="33" t="n">
         <v>2</v>
@@ -7260,9 +7342,11 @@
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
       <c r="J45" s="37"/>
@@ -7282,14 +7366,14 @@
     <mergeCell ref="A40:A45"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G45" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G45" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -7304,7 +7388,7 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -7315,7 +7399,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="14.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="39" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="73.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="13" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="13" width="28.98"/>
@@ -7356,10 +7440,10 @@
     </row>
     <row r="2" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="46" t="n">
         <v>1</v>
@@ -7368,10 +7452,10 @@
         <v>521</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="51"/>
@@ -7381,7 +7465,7 @@
     <row r="3" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="53" t="n">
         <v>1</v>
@@ -7390,10 +7474,10 @@
         <v>521</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="30"/>
@@ -7403,7 +7487,7 @@
     <row r="4" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="53" t="n">
         <v>1</v>
@@ -7412,10 +7496,10 @@
         <v>521</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="30"/>
@@ -7425,7 +7509,7 @@
     <row r="5" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="53" t="n">
         <v>1</v>
@@ -7434,10 +7518,10 @@
         <v>521</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="30"/>
@@ -7447,7 +7531,7 @@
     <row r="6" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="53" t="n">
         <v>1</v>
@@ -7456,10 +7540,10 @@
         <v>620</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="30"/>
@@ -7469,7 +7553,7 @@
     <row r="7" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="53" t="n">
         <v>1</v>
@@ -7478,10 +7562,10 @@
         <v>620</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="30"/>
@@ -7491,7 +7575,7 @@
     <row r="8" s="25" customFormat="true" ht="142.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="53" t="n">
         <v>1</v>
@@ -7500,10 +7584,10 @@
         <v>521</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="30"/>
@@ -7513,7 +7597,7 @@
     <row r="9" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="53" t="n">
         <v>1</v>
@@ -7522,10 +7606,10 @@
         <v>521</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="30"/>
@@ -7535,7 +7619,7 @@
     <row r="10" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="53" t="n">
         <v>1</v>
@@ -7544,10 +7628,10 @@
         <v>521</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="30"/>
@@ -7557,7 +7641,7 @@
     <row r="11" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="53" t="n">
         <v>1</v>
@@ -7566,10 +7650,10 @@
         <v>263</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="30"/>
@@ -7579,7 +7663,7 @@
     <row r="12" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="53" t="n">
         <v>1</v>
@@ -7588,10 +7672,10 @@
         <v>521</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="30"/>
@@ -7601,7 +7685,7 @@
     <row r="13" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
       <c r="B13" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="53" t="n">
         <v>1</v>
@@ -7610,10 +7694,10 @@
         <v>521</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="30"/>
@@ -7622,10 +7706,10 @@
     </row>
     <row r="14" s="25" customFormat="true" ht="111" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="53" t="n">
         <v>1</v>
@@ -7634,10 +7718,10 @@
         <v>307</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="30"/>
@@ -7647,7 +7731,7 @@
     <row r="15" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
       <c r="B15" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="53" t="n">
         <v>1</v>
@@ -7656,10 +7740,10 @@
         <v>304</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="30"/>
@@ -7669,7 +7753,7 @@
     <row r="16" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
       <c r="B16" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="53" t="n">
         <v>1</v>
@@ -7679,7 +7763,7 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="30"/>
@@ -7689,7 +7773,7 @@
     <row r="17" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="55" t="n">
         <v>3</v>
@@ -7698,10 +7782,10 @@
         <v>308</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="30"/>
@@ -7711,7 +7795,7 @@
     <row r="18" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
       <c r="B18" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="55" t="n">
         <v>3</v>
@@ -7720,10 +7804,10 @@
         <v>319</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="30"/>
@@ -7733,7 +7817,7 @@
     <row r="19" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44"/>
       <c r="B19" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="55" t="n">
         <v>3</v>
@@ -7742,10 +7826,10 @@
         <v>308</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="30"/>
@@ -7755,7 +7839,7 @@
     <row r="20" s="25" customFormat="true" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44"/>
       <c r="B20" s="45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="55" t="n">
         <v>3</v>
@@ -7764,10 +7848,10 @@
         <v>308</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="30"/>
@@ -7776,10 +7860,10 @@
     </row>
     <row r="21" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="53" t="n">
         <v>1</v>
@@ -7788,10 +7872,10 @@
         <v>330</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="30"/>
@@ -7801,7 +7885,7 @@
     <row r="22" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="44"/>
       <c r="B22" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="56" t="n">
         <v>2</v>
@@ -7810,10 +7894,10 @@
         <v>308</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
@@ -7823,7 +7907,7 @@
     <row r="23" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44"/>
       <c r="B23" s="45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="56" t="n">
         <v>2</v>
@@ -7832,10 +7916,10 @@
         <v>287</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
@@ -7844,10 +7928,10 @@
     </row>
     <row r="24" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="56" t="n">
         <v>2</v>
@@ -7856,10 +7940,10 @@
         <v>916</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="30"/>
@@ -7869,7 +7953,7 @@
     <row r="25" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44"/>
       <c r="B25" s="45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="56" t="n">
         <v>2</v>
@@ -7878,10 +7962,10 @@
         <v>916</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="30"/>
@@ -7891,7 +7975,7 @@
     <row r="26" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="44"/>
       <c r="B26" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" s="56" t="n">
         <v>2</v>
@@ -7900,10 +7984,10 @@
         <v>916</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="30"/>
@@ -7913,7 +7997,7 @@
     <row r="27" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44"/>
       <c r="B27" s="45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C27" s="56" t="n">
         <v>2</v>
@@ -7922,10 +8006,10 @@
         <v>916</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="30"/>
@@ -7935,7 +8019,7 @@
     <row r="28" s="25" customFormat="true" ht="111" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="44"/>
       <c r="B28" s="45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="56" t="n">
         <v>2</v>
@@ -7944,10 +8028,10 @@
         <v>916</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -7956,10 +8040,10 @@
     </row>
     <row r="29" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="53" t="n">
         <v>1</v>
@@ -7968,10 +8052,10 @@
         <v>640</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -7981,7 +8065,7 @@
     <row r="30" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="44"/>
       <c r="B30" s="45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C30" s="53" t="n">
         <v>1</v>
@@ -7990,10 +8074,10 @@
         <v>640</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -8003,7 +8087,7 @@
     <row r="31" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="44"/>
       <c r="B31" s="45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C31" s="53" t="n">
         <v>1</v>
@@ -8012,10 +8096,10 @@
         <v>640</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -8025,7 +8109,7 @@
     <row r="32" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="44"/>
       <c r="B32" s="45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C32" s="53" t="n">
         <v>1</v>
@@ -8034,10 +8118,10 @@
         <v>16</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -8047,7 +8131,7 @@
     <row r="33" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="44"/>
       <c r="B33" s="45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="53" t="n">
         <v>1</v>
@@ -8056,10 +8140,10 @@
         <v>304</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -8069,7 +8153,7 @@
     <row r="34" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="44"/>
       <c r="B34" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="53" t="n">
         <v>1</v>
@@ -8078,10 +8162,10 @@
         <v>640</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -8091,7 +8175,7 @@
     <row r="35" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="44"/>
       <c r="B35" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C35" s="56" t="n">
         <v>2</v>
@@ -8100,10 +8184,10 @@
         <v>308</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -8112,10 +8196,10 @@
     </row>
     <row r="36" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C36" s="56" t="n">
         <v>2</v>
@@ -8124,10 +8208,10 @@
         <v>308</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -8137,7 +8221,7 @@
     <row r="37" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="44"/>
       <c r="B37" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" s="56" t="n">
         <v>2</v>
@@ -8146,10 +8230,10 @@
         <v>330</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
@@ -8159,7 +8243,7 @@
     <row r="38" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C38" s="56" t="n">
         <v>2</v>
@@ -8168,10 +8252,10 @@
         <v>310</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -8180,10 +8264,10 @@
     </row>
     <row r="39" s="25" customFormat="true" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" s="53" t="n">
         <v>1</v>
@@ -8192,10 +8276,10 @@
         <v>287</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -8205,7 +8289,7 @@
     <row r="40" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="44"/>
       <c r="B40" s="45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C40" s="53" t="n">
         <v>1</v>
@@ -8214,10 +8298,10 @@
         <v>287</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -8227,7 +8311,7 @@
     <row r="41" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="44"/>
       <c r="B41" s="45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C41" s="53" t="n">
         <v>1</v>
@@ -8236,10 +8320,10 @@
         <v>287</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -8249,7 +8333,7 @@
     <row r="42" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="44"/>
       <c r="B42" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="53" t="n">
         <v>1</v>
@@ -8258,10 +8342,10 @@
         <v>523</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
@@ -8271,7 +8355,7 @@
     <row r="43" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44"/>
       <c r="B43" s="45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C43" s="56" t="n">
         <v>2</v>
@@ -8280,10 +8364,10 @@
         <v>256</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
@@ -8293,7 +8377,7 @@
     <row r="44" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44"/>
       <c r="B44" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C44" s="56" t="n">
         <v>2</v>
@@ -8302,10 +8386,10 @@
         <v>310</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
@@ -8314,10 +8398,10 @@
     </row>
     <row r="45" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" s="53" t="n">
         <v>1</v>
@@ -8326,10 +8410,10 @@
         <v>613</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -8339,7 +8423,7 @@
     <row r="46" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="44"/>
       <c r="B46" s="45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C46" s="56" t="n">
         <v>2</v>
@@ -8348,10 +8432,10 @@
         <v>320</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
@@ -8361,7 +8445,7 @@
     <row r="47" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="44"/>
       <c r="B47" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C47" s="56" t="n">
         <v>2</v>
@@ -8370,10 +8454,10 @@
         <v>326</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -8383,7 +8467,7 @@
     <row r="48" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="44"/>
       <c r="B48" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C48" s="56" t="n">
         <v>2</v>
@@ -8392,10 +8476,10 @@
         <v>287</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -8405,7 +8489,7 @@
     <row r="49" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="44"/>
       <c r="B49" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C49" s="56" t="n">
         <v>2</v>
@@ -8414,10 +8498,10 @@
         <v>287</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -8427,7 +8511,7 @@
     <row r="50" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="44"/>
       <c r="B50" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C50" s="56" t="n">
         <v>2</v>
@@ -8436,10 +8520,10 @@
         <v>613</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -8449,7 +8533,7 @@
     <row r="51" s="25" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="44"/>
       <c r="B51" s="45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C51" s="55" t="n">
         <v>3</v>
@@ -8458,10 +8542,10 @@
         <v>308</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
@@ -8470,10 +8554,10 @@
     </row>
     <row r="52" s="25" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C52" s="56" t="n">
         <v>2</v>
@@ -8482,10 +8566,10 @@
         <v>320</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
@@ -8495,7 +8579,7 @@
     <row r="53" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="44"/>
       <c r="B53" s="45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="56" t="n">
         <v>2</v>
@@ -8504,10 +8588,10 @@
         <v>330</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
@@ -8517,7 +8601,7 @@
     <row r="54" s="25" customFormat="true" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="44"/>
       <c r="B54" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C54" s="56" t="n">
         <v>2</v>
@@ -8526,10 +8610,10 @@
         <v>327</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
@@ -8538,22 +8622,22 @@
     </row>
     <row r="55" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D55" s="54" t="n">
         <v>287</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
@@ -8563,19 +8647,19 @@
     <row r="56" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="44"/>
       <c r="B56" s="45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D56" s="54" t="n">
         <v>255</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
@@ -8585,19 +8669,19 @@
     <row r="57" s="25" customFormat="true" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="44"/>
       <c r="B57" s="45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D57" s="54" t="n">
         <v>522</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
@@ -8607,17 +8691,17 @@
     <row r="58" s="25" customFormat="true" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="44"/>
       <c r="B58" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D58" s="58" t="n">
         <v>798</v>
       </c>
       <c r="E58" s="34"/>
       <c r="F58" s="36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -8638,14 +8722,14 @@
     <mergeCell ref="A55:A58"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G58" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G58" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8660,7 +8744,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -8712,10 +8796,10 @@
     </row>
     <row r="2" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
@@ -8725,7 +8809,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -8734,10 +8818,10 @@
     </row>
     <row r="3" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -8749,7 +8833,7 @@
         <v>7.1</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -8759,7 +8843,7 @@
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -8771,7 +8855,7 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -8781,7 +8865,7 @@
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -8793,7 +8877,7 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -8803,7 +8887,7 @@
     <row r="6" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -8815,7 +8899,7 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -8824,10 +8908,10 @@
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -8839,7 +8923,7 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -8849,7 +8933,7 @@
     <row r="8" customFormat="false" ht="111" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -8861,7 +8945,7 @@
         <v>7.2</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -8871,7 +8955,7 @@
     <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C9" s="69" t="n">
         <v>2</v>
@@ -8881,7 +8965,7 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -8891,7 +8975,7 @@
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -8903,7 +8987,7 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -8912,10 +8996,10 @@
     </row>
     <row r="11" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" s="67" t="n">
         <v>1</v>
@@ -8924,10 +9008,10 @@
         <v>614</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -8937,7 +9021,7 @@
     <row r="12" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -8946,10 +9030,10 @@
         <v>1004</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -8959,7 +9043,7 @@
     <row r="13" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
       <c r="B13" s="63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -8968,10 +9052,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -8981,7 +9065,7 @@
     <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -8990,10 +9074,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -9003,7 +9087,7 @@
     <row r="15" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
       <c r="B15" s="63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C15" s="67" t="n">
         <v>1</v>
@@ -9012,10 +9096,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -9024,10 +9108,10 @@
     </row>
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C16" s="69" t="n">
         <v>2</v>
@@ -9036,10 +9120,10 @@
         <v>290</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -9049,7 +9133,7 @@
     <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" s="69" t="n">
         <v>2</v>
@@ -9059,7 +9143,7 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -9069,7 +9153,7 @@
     <row r="18" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
       <c r="B18" s="63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C18" s="69" t="n">
         <v>2</v>
@@ -9079,7 +9163,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -9088,10 +9172,10 @@
     </row>
     <row r="19" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C19" s="70" t="n">
         <v>3</v>
@@ -9100,10 +9184,10 @@
         <v>613</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -9113,7 +9197,7 @@
     <row r="20" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44"/>
       <c r="B20" s="63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C20" s="70" t="n">
         <v>3</v>
@@ -9122,10 +9206,10 @@
         <v>613</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -9134,10 +9218,10 @@
     </row>
     <row r="21" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C21" s="71" t="n">
         <v>1</v>
@@ -9147,7 +9231,7 @@
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
@@ -9172,14 +9256,14 @@
     <mergeCell ref="A19:A20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G21" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G21" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -9194,7 +9278,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -9205,9 +9289,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="12.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="60" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="68.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="42.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
@@ -9246,10 +9330,10 @@
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
@@ -9259,7 +9343,7 @@
       </c>
       <c r="E2" s="50"/>
       <c r="F2" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -9269,7 +9353,7 @@
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -9279,7 +9363,7 @@
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -9289,7 +9373,7 @@
     <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -9299,7 +9383,7 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -9309,7 +9393,7 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="78" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -9319,10 +9403,10 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
@@ -9331,7 +9415,7 @@
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -9341,7 +9425,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -9350,10 +9434,10 @@
     </row>
     <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -9363,7 +9447,7 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -9373,7 +9457,7 @@
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -9383,7 +9467,7 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -9392,10 +9476,10 @@
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -9405,7 +9489,7 @@
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -9415,7 +9499,7 @@
     <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -9425,7 +9509,7 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -9435,7 +9519,7 @@
     <row r="11" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C11" s="79" t="n">
         <v>2</v>
@@ -9445,7 +9529,7 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -9459,14 +9543,14 @@
     <mergeCell ref="A9:A11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G11" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -9481,7 +9565,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -9532,10 +9616,10 @@
     </row>
     <row r="2" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C2" s="64" t="n">
         <v>1</v>
@@ -9545,7 +9629,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -9555,7 +9639,7 @@
     <row r="3" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -9565,7 +9649,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -9575,7 +9659,7 @@
     <row r="4" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C4" s="67" t="n">
         <v>1</v>
@@ -9585,7 +9669,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -9595,7 +9679,7 @@
     <row r="5" customFormat="false" ht="111" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="63" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -9605,7 +9689,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -9615,7 +9699,7 @@
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C6" s="67" t="n">
         <v>1</v>
@@ -9625,7 +9709,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -9634,10 +9718,10 @@
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C7" s="67" t="n">
         <v>1</v>
@@ -9647,7 +9731,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -9657,7 +9741,7 @@
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -9667,7 +9751,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -9677,7 +9761,7 @@
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -9687,7 +9771,7 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -9697,7 +9781,7 @@
     <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -9707,7 +9791,7 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -9717,7 +9801,7 @@
     <row r="11" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" s="67" t="n">
         <v>1</v>
@@ -9727,7 +9811,7 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -9737,7 +9821,7 @@
     <row r="12" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -9747,7 +9831,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -9757,7 +9841,7 @@
     <row r="13" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
       <c r="B13" s="63" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -9767,7 +9851,7 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -9777,7 +9861,7 @@
     <row r="14" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -9787,7 +9871,7 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -9796,10 +9880,10 @@
     </row>
     <row r="15" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C15" s="67" t="n">
         <v>1</v>
@@ -9809,7 +9893,7 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -9819,7 +9903,7 @@
     <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
       <c r="B16" s="63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16" s="67" t="n">
         <v>1</v>
@@ -9829,7 +9913,7 @@
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -9839,7 +9923,7 @@
     <row r="17" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C17" s="67" t="n">
         <v>1</v>
@@ -9849,7 +9933,7 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -9859,7 +9943,7 @@
     <row r="18" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
       <c r="B18" s="63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C18" s="67" t="n">
         <v>1</v>
@@ -9869,7 +9953,7 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -9879,7 +9963,7 @@
     <row r="19" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44"/>
       <c r="B19" s="63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C19" s="67" t="n">
         <v>1</v>
@@ -9889,7 +9973,7 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="81" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -9899,7 +9983,7 @@
     <row r="20" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44"/>
       <c r="B20" s="63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C20" s="67" t="n">
         <v>1</v>
@@ -9909,7 +9993,7 @@
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -9919,7 +10003,7 @@
     <row r="21" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44"/>
       <c r="B21" s="63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C21" s="67" t="n">
         <v>1</v>
@@ -9929,7 +10013,7 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -9939,7 +10023,7 @@
     <row r="22" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="44"/>
       <c r="B22" s="63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C22" s="67" t="n">
         <v>1</v>
@@ -9949,7 +10033,7 @@
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="81" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -9959,7 +10043,7 @@
     <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44"/>
       <c r="B23" s="63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C23" s="67" t="n">
         <v>1</v>
@@ -9969,7 +10053,7 @@
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -9979,7 +10063,7 @@
     <row r="24" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C24" s="67" t="n">
         <v>1</v>
@@ -9989,7 +10073,7 @@
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="81" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -9998,10 +10082,10 @@
     </row>
     <row r="25" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C25" s="69" t="n">
         <v>2</v>
@@ -10011,7 +10095,7 @@
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="81" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -10021,7 +10105,7 @@
     <row r="26" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C26" s="69" t="n">
         <v>2</v>
@@ -10031,7 +10115,7 @@
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="81" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -10041,7 +10125,7 @@
     <row r="27" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44"/>
       <c r="B27" s="63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C27" s="69" t="n">
         <v>2</v>
@@ -10051,7 +10135,7 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -10060,10 +10144,10 @@
     </row>
     <row r="28" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C28" s="67" t="n">
         <v>1</v>
@@ -10073,7 +10157,7 @@
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="81" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -10083,7 +10167,7 @@
     <row r="29" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="44"/>
       <c r="B29" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C29" s="67" t="n">
         <v>1</v>
@@ -10093,7 +10177,7 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="81" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -10103,7 +10187,7 @@
     <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="44"/>
       <c r="B30" s="63" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C30" s="67" t="n">
         <v>1</v>
@@ -10113,7 +10197,7 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="81" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -10123,7 +10207,7 @@
     <row r="31" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="44"/>
       <c r="B31" s="63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C31" s="71" t="n">
         <v>1</v>
@@ -10133,7 +10217,7 @@
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="82" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
@@ -10149,14 +10233,14 @@
     <mergeCell ref="A28:A31"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G31" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G31" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -10171,7 +10255,7 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -10185,7 +10269,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="36.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="27.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
@@ -10223,10 +10307,10 @@
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C2" s="83" t="n">
         <v>2</v>
@@ -10236,7 +10320,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -10246,7 +10330,7 @@
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -10256,7 +10340,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -10266,7 +10350,7 @@
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -10276,7 +10360,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -10285,10 +10369,10 @@
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C5" s="67" t="n">
         <v>1</v>
@@ -10298,7 +10382,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -10308,7 +10392,7 @@
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -10318,7 +10402,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -10328,7 +10412,7 @@
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -10338,7 +10422,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -10348,7 +10432,7 @@
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="63" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -10358,7 +10442,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -10368,7 +10452,7 @@
     <row r="9" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C9" s="69" t="n">
         <v>2</v>
@@ -10378,7 +10462,7 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -10388,7 +10472,7 @@
     <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -10398,7 +10482,7 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -10408,7 +10492,7 @@
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="63" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C11" s="70" t="n">
         <v>3</v>
@@ -10418,7 +10502,7 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -10428,7 +10512,7 @@
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="63" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C12" s="70" t="n">
         <v>3</v>
@@ -10438,7 +10522,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -10447,10 +10531,10 @@
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C13" s="69" t="n">
         <v>2</v>
@@ -10460,7 +10544,7 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="81" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -10470,7 +10554,7 @@
     <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="63" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" s="69" t="n">
         <v>2</v>
@@ -10480,7 +10564,7 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -10490,7 +10574,7 @@
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
       <c r="B15" s="63" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C15" s="70" t="n">
         <v>3</v>
@@ -10500,7 +10584,7 @@
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -10509,10 +10593,10 @@
     </row>
     <row r="16" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C16" s="69" t="n">
         <v>2</v>
@@ -10522,7 +10606,7 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="81" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -10532,7 +10616,7 @@
     <row r="17" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C17" s="79" t="n">
         <v>2</v>
@@ -10542,7 +10626,7 @@
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="82" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -10557,14 +10641,14 @@
     <mergeCell ref="A16:A17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G17" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G17" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -10579,7 +10663,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -10593,7 +10677,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="35.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
   <sheetData>
@@ -10631,10 +10715,10 @@
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="89" t="n">
         <v>1</v>
@@ -10644,7 +10728,7 @@
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="92" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
@@ -10654,7 +10738,7 @@
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" s="67" t="n">
         <v>1</v>
@@ -10664,7 +10748,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -10674,7 +10758,7 @@
     <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -10684,7 +10768,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -10694,7 +10778,7 @@
     <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -10704,7 +10788,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -10713,10 +10797,10 @@
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" s="69" t="n">
         <v>2</v>
@@ -10726,7 +10810,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -10736,7 +10820,7 @@
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C7" s="69" t="n">
         <v>2</v>
@@ -10746,7 +10830,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -10755,10 +10839,10 @@
     </row>
     <row r="8" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C8" s="69" t="n">
         <v>2</v>
@@ -10768,7 +10852,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -10778,7 +10862,7 @@
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C9" s="69" t="n">
         <v>2</v>
@@ -10788,10 +10872,10 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
@@ -10800,7 +10884,7 @@
     <row r="10" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C10" s="69" t="n">
         <v>2</v>
@@ -10810,7 +10894,7 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -10820,7 +10904,7 @@
     <row r="11" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11" s="69" t="n">
         <v>2</v>
@@ -10828,7 +10912,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -10837,10 +10921,10 @@
     </row>
     <row r="12" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -10850,7 +10934,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -10860,7 +10944,7 @@
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
       <c r="B13" s="63" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C13" s="69" t="n">
         <v>2</v>
@@ -10870,7 +10954,7 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -10880,7 +10964,7 @@
     <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="63" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C14" s="79" t="n">
         <v>2</v>
@@ -10890,7 +10974,7 @@
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="82" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -10905,14 +10989,14 @@
     <mergeCell ref="A12:A14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G14" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G14" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -10927,19 +11011,19 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="73" width="30.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="60" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="35.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="30.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="25" width="8.86"/>
   </cols>
@@ -10978,10 +11062,10 @@
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" s="83" t="n">
         <v>2</v>
@@ -10991,7 +11075,7 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
@@ -11001,7 +11085,7 @@
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
       <c r="B3" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C3" s="69" t="n">
         <v>2</v>
@@ -11011,7 +11095,7 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -11021,7 +11105,7 @@
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C4" s="69" t="n">
         <v>2</v>
@@ -11031,7 +11115,7 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -11041,7 +11125,7 @@
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C5" s="69" t="n">
         <v>2</v>
@@ -11051,7 +11135,7 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -11061,7 +11145,7 @@
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C6" s="70" t="n">
         <v>3</v>
@@ -11071,7 +11155,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -11081,7 +11165,7 @@
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="63" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C7" s="70" t="n">
         <v>3</v>
@@ -11091,7 +11175,7 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -11100,10 +11184,10 @@
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C8" s="67" t="n">
         <v>1</v>
@@ -11113,7 +11197,7 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -11123,7 +11207,7 @@
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="63" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C9" s="67" t="n">
         <v>1</v>
@@ -11133,7 +11217,7 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11143,7 +11227,7 @@
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="63" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C10" s="67" t="n">
         <v>1</v>
@@ -11153,7 +11237,7 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11162,10 +11246,10 @@
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C11" s="67" t="n">
         <v>1</v>
@@ -11175,7 +11259,7 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11185,7 +11269,7 @@
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C12" s="67" t="n">
         <v>1</v>
@@ -11195,7 +11279,7 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11205,7 +11289,7 @@
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
       <c r="B13" s="63" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C13" s="67" t="n">
         <v>1</v>
@@ -11215,7 +11299,7 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11225,7 +11309,7 @@
     <row r="14" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C14" s="67" t="n">
         <v>1</v>
@@ -11235,7 +11319,7 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -11245,7 +11329,7 @@
     <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
       <c r="B15" s="63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C15" s="69" t="n">
         <v>2</v>
@@ -11255,7 +11339,7 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -11265,7 +11349,7 @@
     <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
       <c r="B16" s="63" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C16" s="69" t="n">
         <v>2</v>
@@ -11275,7 +11359,7 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="81" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -11285,7 +11369,7 @@
     <row r="17" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="63" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C17" s="69" t="n">
         <v>2</v>
@@ -11295,7 +11379,7 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="81" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -11305,7 +11389,7 @@
     <row r="18" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
       <c r="B18" s="63" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C18" s="79" t="n">
         <v>2</v>
@@ -11315,7 +11399,7 @@
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="82" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
@@ -11329,14 +11413,14 @@
     <mergeCell ref="A11:A18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G18" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G18" type="list">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/deliverable/v4-ASVS-checklist-en.xlsx
+++ b/deliverable/v4-ASVS-checklist-en.xlsx
@@ -3482,7 +3482,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3692,13 +3692,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44014047"/>
-        <c:axId val="79675496"/>
+        <c:axId val="96512831"/>
+        <c:axId val="78617493"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="44014047"/>
+        <c:axId val="96512831"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3735,7 +3735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79675496"/>
+        <c:crossAx val="78617493"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3743,7 +3743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79675496"/>
+        <c:axId val="78617493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,7 +3785,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44014047"/>
+        <c:crossAx val="96512831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3850,9 +3850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1718640</xdr:colOff>
+      <xdr:colOff>1718280</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3861,7 +3861,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4510800"/>
-        <a:ext cx="11146320" cy="9333360"/>
+        <a:ext cx="11146680" cy="9333000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6329,8 +6329,8 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
